--- a/biology/Médecine/Effets_des_réseaux_sociaux_sur_la_santé_mentale/Effets_des_réseaux_sociaux_sur_la_santé_mentale.xlsx
+++ b/biology/Médecine/Effets_des_réseaux_sociaux_sur_la_santé_mentale/Effets_des_réseaux_sociaux_sur_la_santé_mentale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Effets_des_r%C3%A9seaux_sociaux_sur_la_sant%C3%A9_mentale</t>
+          <t>Effets_des_réseaux_sociaux_sur_la_santé_mentale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La santé mentale définit le bien-être psychique, émotionnel et cognitif ou une absence de trouble mental. Elle est nécessaire au bon fonctionnement de l'organisme humain[1].
-En 2022, environ 4,6 milliards de personnes dans le monde étaient actives sur les réseaux sociaux, qui passent en moyenne 7 heures journaliers sur Internet[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La santé mentale définit le bien-être psychique, émotionnel et cognitif ou une absence de trouble mental. Elle est nécessaire au bon fonctionnement de l'organisme humain.
+En 2022, environ 4,6 milliards de personnes dans le monde étaient actives sur les réseaux sociaux, qui passent en moyenne 7 heures journaliers sur Internet.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Effets_des_r%C3%A9seaux_sociaux_sur_la_sant%C3%A9_mentale</t>
+          <t>Effets_des_réseaux_sociaux_sur_la_santé_mentale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bienfaits
-Les réseaux sociaux peuvent présenter de réelles opportunités d'apporter de la positivité pour la santé de l'Homme. Les réseaux sociaux permettent notamment de créer des liens sociaux et d'exprimer sa créativité. Ils peuvent être un réel moyen d'aider les personnes en supprimant les tabous, notamment portant sur la santé mentale (dépression, etc.)[3].
-Le soutien social, c'est-à-dire, se sentir accompagné et ne pas se sentir seul participe au bien-être des personnes. Les réseaux sociaux ont notamment été très utilisés pendant les différents confinements à travers le monde et ont été d'une grande aide pour se divertir et pour s'évader. Les réseaux sociaux peut dont être bénéfiques s'ils sont utilisés à bon escient[4].
-Méfaits
-Le harcèlement en ligne ou la cyber victimisation seraient responsables notamment d'automutilations. Le cyber harcèlement serait le plus dangereux pour la santé mentale.
+          <t>Bienfaits</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les réseaux sociaux peuvent présenter de réelles opportunités d'apporter de la positivité pour la santé de l'Homme. Les réseaux sociaux permettent notamment de créer des liens sociaux et d'exprimer sa créativité. Ils peuvent être un réel moyen d'aider les personnes en supprimant les tabous, notamment portant sur la santé mentale (dépression, etc.).
+Le soutien social, c'est-à-dire, se sentir accompagné et ne pas se sentir seul participe au bien-être des personnes. Les réseaux sociaux ont notamment été très utilisés pendant les différents confinements à travers le monde et ont été d'une grande aide pour se divertir et pour s'évader. Les réseaux sociaux peut dont être bénéfiques s'ils sont utilisés à bon escient.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Effets_des_réseaux_sociaux_sur_la_santé_mentale</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Effets_des_r%C3%A9seaux_sociaux_sur_la_sant%C3%A9_mentale</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Méfaits</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le harcèlement en ligne ou la cyber victimisation seraient responsables notamment d'automutilations. Le cyber harcèlement serait le plus dangereux pour la santé mentale.
 L'addiction est en outre un problème majeur des réseaux sociaux, et des smartphones et autres appareils électroniques en général. En 2017, une autre étude réalisée par le psychologue Dr. Adam Alter révélait que 56% des élèves d'un collège préféreraient se briser la main plutôt que de voir leur smartphone détruit.
 </t>
         </is>
